--- a/data/Subset 1/Video Mosaic Grade 6 2 variables 7.xlsx
+++ b/data/Subset 1/Video Mosaic Grade 6 2 variables 7.xlsx
@@ -904,7 +904,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1054,7 +1054,7 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1077,7 +1077,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1227,7 +1227,7 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
